--- a/biology/Botanique/Limacella/Limacella.xlsx
+++ b/biology/Botanique/Limacella/Limacella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limacella est un genre de champignons de la famille des Amanitaceae. 
 Les espèces du genre Limacella sont fortement différenciées du genre Amanita par leur mode de développement. Un voile membraneux partiel est présent chez certaines espèces.[réf. nécessaire]
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 octobre 2013) :
 Limacella alachuana
 Limacella anomologa
 Limacella arida
@@ -555,7 +569,7 @@
 Limacella subpessundata
 Limacella taiwanensis
 Limacella whereoparaonea
-Selon Index Fungorum                                      (29 octobre 2013)[2] :
+Selon Index Fungorum                                      (29 octobre 2013) :
 Limacella alachuana (Murrill) Pegler 1983
 Limacella anomologa (Berk. &amp; Broome) Pegler 1986
 Limacella arida (Gillet) Konrad &amp; Maubl. 1926
@@ -598,7 +612,7 @@
 Limacella subpessundata (Murrill) Singer 1942
 Limacella taiwanensis Zhu L. Yang &amp; W.N. Chou 2002
 Limacella whereoparaonea G.S. Ridl. 1993
-Selon NCBI  (29 octobre 2013)[3] :
+Selon NCBI  (29 octobre 2013) :
 Limacella glioderma
 Limacella glischra
 Limacella illinita</t>
